--- a/IEDC_queries/IEDC_product_material_search_vMarch2025.xlsx
+++ b/IEDC_queries/IEDC_product_material_search_vMarch2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Pauliuk\FILES\ARBEIT\PROJECTS\Database\IE_DataCommons\IEDC_software\IEDC_queries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAFB32F-B49B-4622-B83A-A189B4C09EDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4FC071-C127-4645-BAE3-E0F097F06E09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Flow (1_F_) by material</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>Sector splits and other shares (3_SHA_) by chemical element</t>
+  </si>
+  <si>
+    <t>Criticality indicators (6_CR) by material</t>
+  </si>
+  <si>
+    <t>material</t>
   </si>
 </sst>
 </file>
@@ -456,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K17"/>
+  <dimension ref="B2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -741,6 +747,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
